--- a/Output/tea_year_result.xlsx
+++ b/Output/tea_year_result.xlsx
@@ -48,7 +48,7 @@
     <t>(.004688)</t>
   </si>
   <si>
-    <t>1950 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1950 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-63.15831   </t>
@@ -69,7 +69,7 @@
     <t>(210.4461)</t>
   </si>
   <si>
-    <t>1951 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1951 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-32.72628   </t>
@@ -84,7 +84,7 @@
     <t>(28.80303)</t>
   </si>
   <si>
-    <t>1954 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1954 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-97.44271*  </t>
@@ -105,7 +105,7 @@
     <t>(209.818)</t>
   </si>
   <si>
-    <t>1955 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1955 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">64.80855   </t>
@@ -126,7 +126,7 @@
     <t>(255.8479)</t>
   </si>
   <si>
-    <t>1956 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1956 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-54.88953   </t>
